--- a/miscellaneous/TASKS.xlsx
+++ b/miscellaneous/TASKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Sites/prjcsps/miscellaneous/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A815E04E-20EA-1E4E-8F57-B4F2026C92C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD27A04-7CB1-DE49-9487-234365CD5499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{F2896A02-11B8-D74F-808C-27DEC2ADB2EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>TASK NRO</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Activo</t>
+  </si>
+  <si>
+    <t>Cambiar la interfaz del home para mostrar los modulos: Control de Procesos / Analisis de laboratorio / Certificados de Calidad / Usuarios / Empresa</t>
   </si>
 </sst>
 </file>
@@ -453,9 +456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E071531-24F9-7C48-B43E-F49CEC833CF5}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -495,9 +500,20 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miscellaneous/TASKS.xlsx
+++ b/miscellaneous/TASKS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Sites/prjcsps/miscellaneous/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD27A04-7CB1-DE49-9487-234365CD5499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2CC0D1-F8CA-1140-9D8A-10C4DE5B4C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{F2896A02-11B8-D74F-808C-27DEC2ADB2EF}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t>Activo</t>
   </si>
   <si>
-    <t>Cambiar la interfaz del home para mostrar los modulos: Control de Procesos / Analisis de laboratorio / Certificados de Calidad / Usuarios / Empresa</t>
+    <t>Cambiar la vista de la barra lateral  para mostrar los hipervinculos a: Control de Procesos / Analisis de laboratorio / Certificados de Calidad / Empresas / Usuarios / Empresa</t>
   </si>
 </sst>
 </file>
@@ -458,9 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E071531-24F9-7C48-B43E-F49CEC833CF5}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/miscellaneous/TASKS.xlsx
+++ b/miscellaneous/TASKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuel/Sites/prjcsps/miscellaneous/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2CC0D1-F8CA-1140-9D8A-10C4DE5B4C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D24162-1417-B849-A7D5-650060AA0F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{F2896A02-11B8-D74F-808C-27DEC2ADB2EF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>TASK NRO</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Cambiar la vista de la barra lateral  para mostrar los hipervinculos a: Control de Procesos / Analisis de laboratorio / Certificados de Calidad / Empresas / Usuarios / Empresa</t>
+  </si>
+  <si>
+    <t>Cambiar la vista dal home  para mostrar los hipervinculos a: Control de Procesos / Analisis de laboratorio / Certificados de Calidad / Clientes / Usuarios / Empresa</t>
+  </si>
+  <si>
+    <t>Diseño y construcción de tabla de clientes internos y externos junto con la tabla de usuarios.</t>
   </si>
 </sst>
 </file>
@@ -456,9 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E071531-24F9-7C48-B43E-F49CEC833CF5}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -510,6 +518,28 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
